--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,10 +495,8 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0865927791</t>
-        </is>
+      <c r="F2" t="n">
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -507,10 +505,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>22000000</v>
+        <v>35000000</v>
       </c>
       <c r="J2" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +518,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,10 +545,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>25000000</v>
+        <v>22000000</v>
       </c>
       <c r="J3" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="4">
@@ -560,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,8 +573,10 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="J4" t="n">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="5">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -623,10 +623,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="J5" t="n">
-        <v>3000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="6">
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -661,10 +661,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>2850000</v>
+        <v>4000000</v>
       </c>
       <c r="J6" t="n">
-        <v>5600000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="7">
@@ -674,11 +674,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -689,10 +689,8 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -701,10 +699,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>10000000</v>
+        <v>2850000</v>
       </c>
       <c r="J7" t="n">
-        <v>15000000</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="8">
@@ -714,11 +712,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -729,8 +727,10 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="n">
-        <v/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -739,10 +739,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>22000000</v>
+        <v>10000000</v>
       </c>
       <c r="J8" t="n">
-        <v>21000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="9">
@@ -752,11 +752,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -767,10 +767,8 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -779,10 +777,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>5000000</v>
+        <v>22000000</v>
       </c>
       <c r="J9" t="n">
-        <v>2000000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +790,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -807,8 +805,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -817,10 +817,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J10" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="11">
@@ -830,11 +830,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="12">
@@ -868,11 +868,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="13">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="14">
@@ -944,11 +944,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7900000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="15">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>16500000</v>
+        <v>7900000</v>
       </c>
     </row>
     <row r="16">
@@ -1020,11 +1020,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>400000</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="17">
@@ -1058,11 +1058,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1083,10 +1083,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>500000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="18">
@@ -1096,11 +1096,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1121,10 +1121,10 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J18" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="19">
@@ -1134,11 +1134,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1149,10 +1149,8 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F19" t="n">
+        <v/>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1161,7 +1159,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>5000000</v>
@@ -1174,11 +1172,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1189,8 +1187,10 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="n">
-        <v/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1202,7 +1202,7 @@
         <v>5000000</v>
       </c>
       <c r="J20" t="n">
-        <v>3386000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="21">
@@ -1212,11 +1212,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1227,10 +1227,8 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F21" t="n">
+        <v/>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1239,10 +1237,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J21" t="n">
-        <v>4000000</v>
+        <v>3386000</v>
       </c>
     </row>
     <row r="22">
@@ -1252,11 +1250,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1267,8 +1265,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8947126536</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="23">
@@ -1290,11 +1290,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1303,12 +1303,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9417002720</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0374112377</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F23" t="n">
+        <v/>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1317,10 +1315,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>25000000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>12000000</v>
       </c>
     </row>
     <row r="24">
@@ -1330,11 +1328,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1343,11 +1341,11 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v/>
+        <v>9417002720</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1357,7 +1355,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J24" t="n">
         <v>12000000</v>
@@ -1370,11 +1368,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1385,8 +1383,10 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="n">
-        <v/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1395,10 +1395,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J25" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="26">
@@ -1408,11 +1408,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1446,11 +1446,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1461,10 +1461,8 @@
       <c r="E27" t="n">
         <v/>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F27" t="n">
+        <v/>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -1473,10 +1471,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>85000000</v>
+        <v>15000000</v>
       </c>
       <c r="J27" t="n">
-        <v>30000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="28">
@@ -1486,11 +1484,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1501,8 +1499,10 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="n">
-        <v/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1511,10 +1511,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85000000</v>
       </c>
       <c r="J28" t="n">
-        <v>1000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="29">
@@ -1524,11 +1524,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1549,10 +1549,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="30">
@@ -1562,11 +1562,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1587,10 +1587,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>18900000</v>
+        <v>10000000</v>
       </c>
       <c r="J30" t="n">
-        <v>7200000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="31">
@@ -1600,11 +1600,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1625,10 +1625,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>10000000</v>
+        <v>18900000</v>
       </c>
       <c r="J31" t="n">
-        <v>5000000</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="32">
@@ -1638,11 +1638,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1663,10 +1663,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J32" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="33">
@@ -1676,11 +1676,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1691,10 +1691,8 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F33" t="n">
+        <v/>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1703,10 +1701,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="34">
@@ -1716,11 +1714,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1731,8 +1729,10 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="n">
-        <v/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1741,10 +1741,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
       <c r="J34" t="n">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="35">
@@ -1754,11 +1754,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1779,10 +1779,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J35" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="36">
@@ -1792,11 +1792,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1817,10 +1817,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>13000000</v>
+        <v>15000000</v>
       </c>
       <c r="J36" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="37">
@@ -1830,11 +1830,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1855,10 +1855,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>2500000</v>
+        <v>13000000</v>
       </c>
       <c r="J37" t="n">
-        <v>1498000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="38">
@@ -1868,34 +1868,72 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>61</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v/>
+      </c>
+      <c r="F38" t="n">
+        <v/>
+      </c>
+      <c r="G38" t="n">
+        <v/>
+      </c>
+      <c r="H38" t="n">
+        <v/>
+      </c>
+      <c r="I38" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1498000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>59</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Quan thị Hoa</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v/>
-      </c>
-      <c r="F38" t="n">
-        <v/>
-      </c>
-      <c r="G38" t="n">
-        <v/>
-      </c>
-      <c r="H38" t="n">
-        <v/>
-      </c>
-      <c r="I38" t="n">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v/>
+      </c>
+      <c r="F39" t="n">
+        <v/>
+      </c>
+      <c r="G39" t="n">
+        <v/>
+      </c>
+      <c r="H39" t="n">
+        <v/>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J39" t="n">
         <v>10000000</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ngọc hân</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,8 +495,10 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="n">
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0760377571</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -505,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>35000000</v>
+        <v>6000000</v>
       </c>
       <c r="J2" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="3">
@@ -518,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -533,10 +535,8 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0865927791</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -545,10 +545,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>22000000</v>
+        <v>35000000</v>
       </c>
       <c r="J3" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="4">
@@ -558,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -585,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>25000000</v>
+        <v>22000000</v>
       </c>
       <c r="J4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="5">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -613,8 +613,10 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="n">
-        <v/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -623,10 +625,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="J5" t="n">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="6">
@@ -636,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -661,10 +663,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="J6" t="n">
-        <v>3000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="7">
@@ -674,11 +676,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -699,10 +701,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>2850000</v>
+        <v>4000000</v>
       </c>
       <c r="J7" t="n">
-        <v>5600000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="8">
@@ -712,11 +714,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,10 +729,8 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F8" t="n">
+        <v/>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -739,10 +739,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>10000000</v>
+        <v>2850000</v>
       </c>
       <c r="J8" t="n">
-        <v>15000000</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="9">
@@ -752,11 +752,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -767,8 +767,10 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="n">
-        <v/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -777,10 +779,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>22000000</v>
+        <v>10000000</v>
       </c>
       <c r="J9" t="n">
-        <v>21000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="10">
@@ -790,11 +792,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -805,10 +807,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -817,10 +817,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>5000000</v>
+        <v>22000000</v>
       </c>
       <c r="J10" t="n">
-        <v>2000000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="11">
@@ -830,11 +830,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -845,8 +845,10 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -855,10 +857,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J11" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="12">
@@ -868,11 +870,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="13">
@@ -906,11 +908,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -934,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="14">
@@ -944,11 +946,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -972,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="15">
@@ -982,11 +984,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1010,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7900000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="16">
@@ -1020,11 +1022,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1048,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16500000</v>
+        <v>7900000</v>
       </c>
     </row>
     <row r="17">
@@ -1058,11 +1060,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1086,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>400000</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="18">
@@ -1096,11 +1098,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1121,10 +1123,10 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>500000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="19">
@@ -1134,11 +1136,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1159,10 +1161,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J19" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="20">
@@ -1172,11 +1174,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1187,10 +1189,8 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F20" t="n">
+        <v/>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1199,7 +1199,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>5000000</v>
@@ -1212,11 +1212,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1227,8 +1227,10 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="n">
-        <v/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1240,7 +1242,7 @@
         <v>5000000</v>
       </c>
       <c r="J21" t="n">
-        <v>3386000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="22">
@@ -1250,11 +1252,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1265,10 +1267,8 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F22" t="n">
+        <v/>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1277,10 +1277,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J22" t="n">
-        <v>4000000</v>
+        <v>3386000</v>
       </c>
     </row>
     <row r="23">
@@ -1290,11 +1290,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1305,8 +1305,10 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="n">
-        <v/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8947126536</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1318,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>25000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="24">
@@ -1328,11 +1330,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1341,12 +1343,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9417002720</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0374112377</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F24" t="n">
+        <v/>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1355,10 +1355,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>25000000</v>
-      </c>
-      <c r="J24" t="n">
-        <v>12000000</v>
       </c>
     </row>
     <row r="25">
@@ -1368,11 +1368,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1381,11 +1381,11 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v/>
+        <v>9417002720</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1395,7 +1395,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J25" t="n">
         <v>12000000</v>
@@ -1408,11 +1408,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1423,8 +1423,10 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="n">
-        <v/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1433,10 +1435,10 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J26" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="27">
@@ -1446,11 +1448,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1484,11 +1486,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1499,10 +1501,8 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F28" t="n">
+        <v/>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1511,10 +1511,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>85000000</v>
+        <v>15000000</v>
       </c>
       <c r="J28" t="n">
-        <v>30000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="29">
@@ -1524,11 +1524,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1539,8 +1539,10 @@
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="n">
-        <v/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1549,10 +1551,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85000000</v>
       </c>
       <c r="J29" t="n">
-        <v>1000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="30">
@@ -1562,11 +1564,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1587,10 +1589,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="31">
@@ -1600,11 +1602,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1625,10 +1627,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>18900000</v>
+        <v>10000000</v>
       </c>
       <c r="J31" t="n">
-        <v>7200000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="32">
@@ -1638,11 +1640,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1663,10 +1665,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>10000000</v>
+        <v>18900000</v>
       </c>
       <c r="J32" t="n">
-        <v>5000000</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="33">
@@ -1676,11 +1678,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1701,10 +1703,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J33" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="34">
@@ -1714,11 +1716,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1729,10 +1731,8 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F34" t="n">
+        <v/>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1741,10 +1741,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="35">
@@ -1754,11 +1754,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1769,8 +1769,10 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="n">
-        <v/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1779,10 +1781,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
       <c r="J35" t="n">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="36">
@@ -1792,11 +1794,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1817,10 +1819,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J36" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="37">
@@ -1830,11 +1832,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1855,10 +1857,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>13000000</v>
+        <v>15000000</v>
       </c>
       <c r="J37" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="38">
@@ -1868,11 +1870,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1893,10 +1895,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>2500000</v>
+        <v>13000000</v>
       </c>
       <c r="J38" t="n">
-        <v>1498000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="39">
@@ -1906,34 +1908,72 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>61</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v/>
+      </c>
+      <c r="F39" t="n">
+        <v/>
+      </c>
+      <c r="G39" t="n">
+        <v/>
+      </c>
+      <c r="H39" t="n">
+        <v/>
+      </c>
+      <c r="I39" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1498000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>59</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Quan thị Hoa</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v/>
-      </c>
-      <c r="F39" t="n">
-        <v/>
-      </c>
-      <c r="G39" t="n">
-        <v/>
-      </c>
-      <c r="H39" t="n">
-        <v/>
-      </c>
-      <c r="I39" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v/>
+      </c>
+      <c r="F40" t="n">
+        <v/>
+      </c>
+      <c r="G40" t="n">
+        <v/>
+      </c>
+      <c r="H40" t="n">
+        <v/>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J40" t="n">
         <v>10000000</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại SÓC TRĂNG.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0760377571</t>
+          <t>0833525730</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>6000000</v>
+        <v>50000000</v>
       </c>
       <c r="J2" t="n">
-        <v>2000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ngọc hân</t>
+          <t>mai hồng nương</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,8 +535,10 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="n">
-        <v/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0760377571</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -545,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>35000000</v>
+        <v>6000000</v>
       </c>
       <c r="J3" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="4">
@@ -558,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t>ngọc hân</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -573,10 +575,8 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0865927791</t>
-        </is>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>22000000</v>
+        <v>35000000</v>
       </c>
       <c r="J4" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="5">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0865927791</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -625,10 +625,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>25000000</v>
+        <v>22000000</v>
       </c>
       <c r="J5" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="6">
@@ -638,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -653,8 +653,10 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="n">
-        <v/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -663,10 +665,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="J6" t="n">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="7">
@@ -676,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -701,10 +703,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="J7" t="n">
-        <v>3000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="8">
@@ -714,11 +716,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -739,10 +741,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>2850000</v>
+        <v>4000000</v>
       </c>
       <c r="J8" t="n">
-        <v>5600000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="9">
@@ -752,11 +754,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -767,10 +769,8 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -779,10 +779,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>10000000</v>
+        <v>2850000</v>
       </c>
       <c r="J9" t="n">
-        <v>15000000</v>
+        <v>5600000</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -807,8 +807,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -817,10 +819,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>22000000</v>
+        <v>10000000</v>
       </c>
       <c r="J10" t="n">
-        <v>21000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="11">
@@ -830,11 +832,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -845,10 +847,8 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F11" t="n">
+        <v/>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -857,10 +857,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>5000000</v>
+        <v>22000000</v>
       </c>
       <c r="J11" t="n">
-        <v>2000000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="12">
@@ -870,11 +870,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -885,8 +885,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -895,10 +897,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J12" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="13">
@@ -908,11 +910,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -936,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="14">
@@ -946,11 +948,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -974,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>15000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="15">
@@ -984,11 +986,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1012,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="16">
@@ -1022,11 +1024,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1050,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7900000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="17">
@@ -1060,11 +1062,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1088,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>16500000</v>
+        <v>7900000</v>
       </c>
     </row>
     <row r="18">
@@ -1098,11 +1100,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1126,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>400000</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="19">
@@ -1136,11 +1138,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1161,10 +1163,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>500000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="20">
@@ -1174,11 +1176,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1199,10 +1201,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J20" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="21">
@@ -1212,11 +1214,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1227,10 +1229,8 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F21" t="n">
+        <v/>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1239,7 +1239,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>5000000</v>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1267,8 +1267,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1280,7 +1282,7 @@
         <v>5000000</v>
       </c>
       <c r="J22" t="n">
-        <v>3386000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="23">
@@ -1290,11 +1292,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1305,10 +1307,8 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F23" t="n">
+        <v/>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1317,10 +1317,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J23" t="n">
-        <v>4000000</v>
+        <v>3386000</v>
       </c>
     </row>
     <row r="24">
@@ -1330,11 +1330,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1345,8 +1345,10 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8947126536</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1358,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>25000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="25">
@@ -1368,11 +1370,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1381,12 +1383,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9417002720</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0374112377</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F25" t="n">
+        <v/>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1395,10 +1395,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>25000000</v>
-      </c>
-      <c r="J25" t="n">
-        <v>12000000</v>
       </c>
     </row>
     <row r="26">
@@ -1408,11 +1408,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1421,11 +1421,11 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v/>
+        <v>9417002720</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1435,7 +1435,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J26" t="n">
         <v>12000000</v>
@@ -1448,11 +1448,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1463,8 +1463,10 @@
       <c r="E27" t="n">
         <v/>
       </c>
-      <c r="F27" t="n">
-        <v/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -1473,10 +1475,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J27" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="28">
@@ -1486,11 +1488,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1524,11 +1526,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1539,10 +1541,8 @@
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F29" t="n">
+        <v/>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1551,10 +1551,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>85000000</v>
+        <v>15000000</v>
       </c>
       <c r="J29" t="n">
-        <v>30000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="30">
@@ -1564,11 +1564,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1579,8 +1579,10 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="n">
-        <v/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1589,10 +1591,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>85000000</v>
       </c>
       <c r="J30" t="n">
-        <v>1000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="31">
@@ -1602,11 +1604,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1627,10 +1629,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="32">
@@ -1640,11 +1642,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1665,10 +1667,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>18900000</v>
+        <v>10000000</v>
       </c>
       <c r="J32" t="n">
-        <v>7200000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="33">
@@ -1678,11 +1680,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1703,10 +1705,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>10000000</v>
+        <v>18900000</v>
       </c>
       <c r="J33" t="n">
-        <v>5000000</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="34">
@@ -1716,11 +1718,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1741,10 +1743,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J34" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="35">
@@ -1754,11 +1756,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1769,10 +1771,8 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F35" t="n">
+        <v/>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1781,10 +1781,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="36">
@@ -1794,11 +1794,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1809,8 +1809,10 @@
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="n">
-        <v/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1819,10 +1821,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
       <c r="J36" t="n">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="37">
@@ -1832,11 +1834,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1857,10 +1859,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J37" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="38">
@@ -1870,11 +1872,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1895,10 +1897,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>13000000</v>
+        <v>15000000</v>
       </c>
       <c r="J38" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="39">
@@ -1908,11 +1910,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1933,10 +1935,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>2500000</v>
+        <v>13000000</v>
       </c>
       <c r="J39" t="n">
-        <v>1498000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="40">
@@ -1946,34 +1948,72 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>61</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v/>
+      </c>
+      <c r="F40" t="n">
+        <v/>
+      </c>
+      <c r="G40" t="n">
+        <v/>
+      </c>
+      <c r="H40" t="n">
+        <v/>
+      </c>
+      <c r="I40" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1498000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>59</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Quan thị Hoa</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v/>
-      </c>
-      <c r="F40" t="n">
-        <v/>
-      </c>
-      <c r="G40" t="n">
-        <v/>
-      </c>
-      <c r="H40" t="n">
-        <v/>
-      </c>
-      <c r="I40" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v/>
+      </c>
+      <c r="F41" t="n">
+        <v/>
+      </c>
+      <c r="G41" t="n">
+        <v/>
+      </c>
+      <c r="H41" t="n">
+        <v/>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J41" t="n">
         <v>10000000</v>
       </c>
     </row>
